--- a/BalanceSheet/W_bal.xlsx
+++ b/BalanceSheet/W_bal.xlsx
@@ -440,19 +440,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>2345000.0</v>
+        <v>52000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>-11226000.0</v>
+        <v>54000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>13805000.0</v>
+        <v>43000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>5023000.0</v>
+        <v>57000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>7085000.0</v>
+        <v>62000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>68622000.0</v>
@@ -1491,19 +1491,19 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
-        <v>175311000.0</v>
+        <v>1157000000.0</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>-13451000.0</v>
+        <v>1237000000.0</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>484289000.0</v>
+        <v>1270000000.0</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>-114623000.0</v>
+        <v>838000000.0</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>114539000.0</v>
+        <v>908000000.0</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>814439000.0</v>
